--- a/data/trans_bre/P1002-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>540,43%</t>
+          <t>589,02%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 10,37</t>
+          <t>1,14; 10,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,5; —</t>
+          <t>-52,21; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>114,9%</t>
+          <t>80,27%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,04</t>
+          <t>-1,41; 5,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 481,36</t>
+          <t>-30,66; 382,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>0,82%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,81</t>
+          <t>-2,77; 2,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 75,75</t>
+          <t>-39,76; 71,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,18%</t>
+          <t>83,16%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 6,72</t>
+          <t>0,66; 8,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 145,99</t>
+          <t>8,74; 337,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>61,4%</t>
+          <t>61,34%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 8,1</t>
+          <t>1,71; 8,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,99; 130,12</t>
+          <t>16,04; 129,23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>61,39%</t>
+          <t>67,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>111,46%</t>
+          <t>102,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>21,98%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,7</t>
+          <t>-1,32; 8,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 14,84</t>
+          <t>2,31; 14,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 15,13</t>
+          <t>3,37; 14,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 12,31</t>
+          <t>-5,99; 7,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 75,6</t>
+          <t>-9,24; 101,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,05; 107,62</t>
+          <t>12,17; 146,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,89; 177,01</t>
+          <t>31,3; 225,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,26; 150,94</t>
+          <t>-60,49; 103,82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>10,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>12,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>13,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>63,07%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>107,24%</t>
+          <t>48,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>109,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>82,92%</t>
+          <t>128,25%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-4,16; 8,65</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 17,49</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6,25; 18,54</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 17,69</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-21,32; 68,17</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11,26; 102,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>40,1; 205,21</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>68,72; 202,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,22</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5,32</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>63,07%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>107,24%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>99,6%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>83,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,06; 4,53</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>5,72; 8,64</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>3,99; 6,66</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 6,2</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 6,1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>34,81; 97,13</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>76,37; 141,25</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>69,32; 141,85</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>53,07; 116,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>45,41; 133,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P1002-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,03</t>
+          <t>-0,8; 3,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,02</t>
+          <t>0,13; 4,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,16</t>
+          <t>-1,98; 1,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 10,55</t>
+          <t>1,58; 9,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 330,92</t>
+          <t>-42,15; 358,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 405,06</t>
+          <t>-4,68; 427,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 201,75</t>
+          <t>-62,71; 162,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,21; —</t>
+          <t>-28,72; —</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,98</t>
+          <t>1,02; 5,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,78</t>
+          <t>0,27; 4,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,37</t>
+          <t>-2,14; 2,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 5,93</t>
+          <t>-1,44; 5,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,98; 342,05</t>
+          <t>24,84; 310,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 263,6</t>
+          <t>-2,27; 250,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,55; 97,35</t>
+          <t>-43,6; 94,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,66; 382,2</t>
+          <t>-38,99; 398,89</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,38</t>
+          <t>-1,27; 3,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,79</t>
+          <t>3,96; 9,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,29</t>
+          <t>0,37; 5,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,68</t>
+          <t>-2,86; 2,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 114,54</t>
+          <t>-25,2; 123,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,06; 297,37</t>
+          <t>61,11; 301,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 229,35</t>
+          <t>7,25; 215,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 71,81</t>
+          <t>-39,73; 63,7</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,14</t>
+          <t>2,09; 8,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,06</t>
+          <t>3,07; 9,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,56</t>
+          <t>0,11; 6,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 8,19</t>
+          <t>0,93; 8,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,77; 239,16</t>
+          <t>34,69; 252,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,81; 196,23</t>
+          <t>37,62; 196,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 135,93</t>
+          <t>0,88; 124,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,74; 337,57</t>
+          <t>11,25; 366,37</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 6,2</t>
+          <t>-1,57; 6,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 15,72</t>
+          <t>5,85; 14,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 14,32</t>
+          <t>6,35; 14,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 8,05</t>
+          <t>1,85; 7,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 109,79</t>
+          <t>-19,45; 110,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,16; 222,69</t>
+          <t>48,29; 212,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>72,62; 335,21</t>
+          <t>79,87; 341,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,04; 129,23</t>
+          <t>17,64; 133,81</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 8,37</t>
+          <t>-0,67; 8,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 14,6</t>
+          <t>2,4; 14,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,37; 14,1</t>
+          <t>3,97; 14,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 7,19</t>
+          <t>-4,97; 7,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 101,99</t>
+          <t>-4,86; 106,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,17; 146,79</t>
+          <t>13,25; 152,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,3; 225,3</t>
+          <t>30,63; 207,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,49; 103,82</t>
+          <t>-55,1; 106,35</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 8,65</t>
+          <t>-4,71; 9,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 17,49</t>
+          <t>3,43; 17,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,25; 18,54</t>
+          <t>6,88; 19,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,28; 17,69</t>
+          <t>9,66; 18,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 68,17</t>
+          <t>-24,7; 73,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,26; 102,19</t>
+          <t>12,46; 106,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,1; 205,21</t>
+          <t>45,97; 211,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>68,72; 202,23</t>
+          <t>72,43; 214,86</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,53</t>
+          <t>1,97; 4,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,72; 8,64</t>
+          <t>5,69; 8,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,66</t>
+          <t>3,97; 6,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,1</t>
+          <t>2,69; 6,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,81; 97,13</t>
+          <t>33,16; 97,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>76,37; 141,25</t>
+          <t>74,5; 140,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>69,32; 141,85</t>
+          <t>67,92; 137,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>45,41; 133,8</t>
+          <t>46,94; 135,45</t>
         </is>
       </c>
     </row>
